--- a/Heuristicas/Resultado_Ensemble_smape_cenario_45.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_45.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaral\Documents\Faculdade\tcc\Heuristicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\TCC\Heuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02C8C5-C081-47F5-AE69-9E27868F7F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543BAE8-0989-47EF-93A2-D968BB638FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
